--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Time sheet</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Evan</t>
+  </si>
+  <si>
+    <t>Fix GUI scaling and added data resources</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,14 +180,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +499,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +511,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -511,7 +520,7 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -544,290 +553,300 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42770</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Time sheet</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Fix GUI scaling and added data resources</t>
+  </si>
+  <si>
+    <t>Migrated away from hard coded object details using JSON</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <cols>
     <col min="1" max="1" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -570,12 +573,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12"/>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42771</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.84375</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyororo\Documents\ESSGAME\Town-Builder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time sheet</t>
   </si>
@@ -39,13 +44,19 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Evan</t>
+    <t>Evan F</t>
+  </si>
+  <si>
+    <t>Evan S</t>
+  </si>
+  <si>
+    <t>Made smoother green grass and made chest sprites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +195,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -195,6 +212,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -243,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +296,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +583,7 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>42769</v>
@@ -545,11 +599,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>42771</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.4375</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyororo\Documents\ESSGAME\Town-Builder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Time sheet</t>
   </si>
@@ -46,12 +51,18 @@
   </si>
   <si>
     <t>Migrated away from hard coded object details using JSON</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Made green consistant grass and two chests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,6 +218,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -255,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +302,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,6 +354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,7 +550,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,12 +638,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12"/>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42771</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyororo\Documents\ESSGAME\Town-Builder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
   </bookViews>
@@ -44,25 +39,25 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Evan</t>
-  </si>
-  <si>
     <t>Fix GUI scaling and added data resources</t>
   </si>
   <si>
     <t>Migrated away from hard coded object details using JSON</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Made green consistant grass and two chests</t>
+  </si>
+  <si>
+    <t>Sours, Evan</t>
+  </si>
+  <si>
+    <t>Frost, Evan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,26 +297,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,7 +511,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +550,7 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>42769</v>
@@ -606,7 +567,7 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
         <v>42770</v>
@@ -618,12 +579,12 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10">
         <v>42771</v>
@@ -635,12 +596,12 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="10">
         <v>42771</v>
@@ -652,7 +613,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Time sheet</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Frost, Evan</t>
+  </si>
+  <si>
+    <t>Worked on UI design and discussed sprite edits w/ Evan F</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,12 +619,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12"/>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyororo\Documents\ESSGAME\Town-Builder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Time sheet</t>
   </si>
@@ -52,12 +57,18 @@
   </si>
   <si>
     <t>Frost, Evan</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Made basic water, sand, and birch tree, fall and spring/summer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +308,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,7 +556,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,12 +661,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12"/>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyororo\Documents\ESSGAME\Town-Builder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Time sheet</t>
   </si>
@@ -63,12 +58,15 @@
   </si>
   <si>
     <t>Made basic water, sand, and birch tree, fall and spring/summer.</t>
+  </si>
+  <si>
+    <t>Changed build menu location and display type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,26 +306,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,23 +341,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,7 +520,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,12 +642,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10">
+        <v>42778</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.65625</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
